--- a/failure time distribution.xlsx
+++ b/failure time distribution.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\analysis_data_SEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A785E2E8-CB61-4C86-924B-E9ADD240E65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBE110B-EAA2-499F-9B9D-EA76AF0C4022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="16410" windowHeight="12315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1950" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$C$124</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>POSTE 14 : CONTRÔLE MISE Á LA TERRE</t>
   </si>
@@ -126,12 +129,18 @@
   </si>
   <si>
     <t>component</t>
+  </si>
+  <si>
+    <t>downtime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -190,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +208,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,1011 +489,1385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>5495.1128258333774</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
+        <v>0.50805750000290573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>5486.3303702779231</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>1.2140786109957844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>5397.7066333334078</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="4">
+        <v>1.137699999846518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>5394.2168341667857</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>1.0310686112497933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>5354.5267905557994</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>3.3550158331054263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>5346.399641666736</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>1.4435750000411645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>5332.1039286110317</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>1.3464972224319354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>5328.5108675000374</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>3.7125547222676687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="3">
         <v>5251.5786647223285</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>47.06585361098405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="3">
         <v>5247.498821111396</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>3.0150594442966394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>5205.9952286113403</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>0.15772972209379077</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="3">
         <v>5193.1722138887853</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>1.3418322223587893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3">
         <v>5174.3507174999686</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>10.679663055692799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3">
         <v>5021.2826794445864</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>0.82972888858057559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3">
         <v>4968.8441738890833</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>2.8148594442754984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="3">
         <v>4864.6626119444263</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>31.372455555712804</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3">
         <v>4530.5089416668052</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>2.9994036110001616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3">
         <v>4503.6210758333327</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>1.8645713890437037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="3">
         <v>4466.1906155557372</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>1.3005638885661028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="3">
         <v>4461.7108647224377</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>0.62068888870999217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="3">
         <v>4210.7504424998187</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <v>1.8199361112783663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="3">
         <v>4204.1734313889756</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>0.5980869444902055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="3">
         <v>4154.7201480556978</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>2.6799591664457694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="3">
         <v>4118.9125294445548</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>4.7644963888451457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B26" s="3">
         <v>3992.9648869445664</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
+        <v>2.2871611111331731</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B27" s="3">
         <v>3830.7796694445424</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>3.7165980554418638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B28" s="3">
         <v>3828.5695000000997</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>22.245168333349284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="3">
         <v>3796.3590230555856</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>0.71341194439446554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="3">
         <v>3727.8582683333661</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="4">
+        <v>0.23416222224477679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="3">
         <v>3718.7702583334758</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="4">
+        <v>0.81151388876605779</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="3">
         <v>3710.9073600000702</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="4">
+        <v>1.7223408333957195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="3">
         <v>3702.4608230553567</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="4">
+        <v>2.2659075002884492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="3">
         <v>3691.0992286110995</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="4">
+        <v>0.54877500009024516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="3">
         <v>3665.6896583333728</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="4">
+        <v>2.4936211110907607</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="3">
         <v>3661.0009944444755</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="4">
+        <v>0.20237027783878148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="3">
         <v>3630.6205202776473</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="4">
+        <v>3.8678341669728979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="3">
         <v>3373.946686944575</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="4">
+        <v>5.4458361109136604</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B39" s="3">
         <v>3350.2895147223026</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="4">
+        <v>0.19330277777044103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="3">
         <v>3287.4126988888602</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="4">
+        <v>24.372617777902633</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B41" s="3">
         <v>3144.4704388888786</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="4">
+        <v>0.26238222228130326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="3">
         <v>3143.3139277778682</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="4">
+        <v>1.0929027777747251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="3">
         <v>3030.0002230555401</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="4">
+        <v>1.1306805556523614</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B44" s="3">
         <v>2721.5753444443108</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="4">
+        <v>0.34672861138824373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="3">
         <v>2665.2845211111708</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="4">
+        <v>1.3236158334184438</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="3">
         <v>2661.7365000000573</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="4">
+        <v>0.79623416665708646</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B47" s="3">
         <v>2631.4764266667771</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="4">
+        <v>1.3378916668589227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="3">
         <v>2624.8663405555417</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="4">
+        <v>0.33974833355750889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="3">
         <v>2521.6475027778069</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="4">
+        <v>0.37819888890953735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B50" s="3">
         <v>2492.5073952778475</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="4">
+        <v>1.4914055555127561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B51" s="3">
         <v>2458.576133333263</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="4">
+        <v>3.0600527779315598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B52" s="3">
         <v>2353.698156389175</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="4">
+        <v>2.3004769440740347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B53" s="3">
         <v>2334.3712166666519</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="4">
+        <v>3.3729750001220964</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="3">
         <v>2327.4433683333336</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="4">
+        <v>4.3635927778668702</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="3">
         <v>2217.6071924999706</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="4">
+        <v>2.054352777893655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B56" s="3">
         <v>2037.7250294446712</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="4">
+        <v>0.23709555552341044</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="3">
         <v>2011.6806711113895</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="4">
+        <v>0.99163805530406535</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B58" s="3">
         <v>1973.4905461112503</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="4">
+        <v>0.99357694439822808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="3">
         <v>1948.4425544443075</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="4">
+        <v>2.9985519446781836</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B60" s="3">
         <v>1938.5790286111878</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="4">
+        <v>0.30253416672348976</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="3">
         <v>1937.1062711112318</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="4">
+        <v>0.51635472220368683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="3">
         <v>1936.1242877778132</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="4">
+        <v>0.53600194462342188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="3">
         <v>1875.8054777776706</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="4">
+        <v>0.22334055590908974</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="3">
         <v>1874.5188444445375</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="4">
+        <v>1.4853008331265301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B65" s="3">
         <v>1870.0875527776661</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="4">
+        <v>1.212362778140232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B66" s="3">
         <v>1852.7000294445315</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="4">
+        <v>0.52389722212683409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B67" s="3">
         <v>1827.9430405555177</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="4">
+        <v>1.0308305555954576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B68" s="3">
         <v>1827.7499599999865</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="4">
+        <v>0.23805749992607161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="3">
         <v>1700.8559638889856</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="4">
+        <v>9.2088888923171908E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B70" s="3">
         <v>1678.3268008333398</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="4">
+        <v>2.0935647222795524</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="3">
         <v>1657.2629202778917</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="4">
+        <v>1.2528647222206928</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B72" s="3">
         <v>1638.9110555556254</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="4">
+        <v>1.2652869443991221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B73" s="3">
         <v>1636.0702405556221</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="4">
+        <v>0.70143999997526407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B74" s="3">
         <v>1632.3516572223161</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="4">
+        <v>4.6837769442354329</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B75" s="3">
         <v>1632.080261111143</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="4">
+        <v>5.3701333333156072</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B76" s="3">
         <v>1522.4935138889705</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="4">
+        <v>3.0973861111560836</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="3">
         <v>1511.2876452778</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="4">
+        <v>2.6105425001587719</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B78" s="3">
         <v>1480.7196527776541</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="4">
+        <v>1.1848544446402229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B79" s="3">
         <v>1477.7455758334254</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="4">
+        <v>3.9131091667804867</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B80" s="3">
         <v>1342.3937452778919</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="4">
+        <v>1.2765138888498768</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B81" s="3">
         <v>1318.9041183334775</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="4">
+        <v>1.2050408331560902</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B82" s="3">
         <v>1313.1505952778971</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="4">
+        <v>0.59805749991210178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B83" s="3">
         <v>1287.1328230555519</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="4">
+        <v>1.18910277786199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B84" s="3">
         <v>1105.2852416667156</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="4">
+        <v>1.0043861108715646</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B85" s="3">
         <v>1025.4962127777399</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="4">
+        <v>0.98297611117595807</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B86" s="3">
         <v>1020.4525611110148</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="4">
+        <v>0.63300444470951334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B87" s="3">
         <v>925.64321944437688</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="4">
+        <v>0.53506111144088209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B88" s="3">
         <v>844.51872027805075</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="4">
+        <v>22.568459166388493</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="3">
         <v>842.52925722225336</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="4">
+        <v>1.3467594446847215</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B90" s="3">
         <v>833.36344055581139</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="4">
+        <v>0.92760833288775757</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B91" s="3">
         <v>832.50828138896031</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" s="4">
+        <v>1.1174749999190681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B92" s="3">
         <v>796.38870000012685</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="4">
+        <v>0.84040638880105689</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B93" s="3">
         <v>791.47008333349368</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="4">
+        <v>0.55843611108139157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B94" s="3">
         <v>780.19010916684056</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" s="4">
+        <v>0.48701111110858619</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B95" s="3">
         <v>772.45742861117469</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" s="4">
+        <v>18.299695277761202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B96" s="3">
         <v>666.48399166669697</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="4">
+        <v>0.83256666694069281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B97" s="3">
         <v>656.24271833337843</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="4">
+        <v>0.94078722229460254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B98" s="3">
         <v>656.22528777789557</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="4">
+        <v>0.92513527767732739</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B99" s="3">
         <v>647.34745444444707</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="4">
+        <v>2.2530852777999826</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B100" s="3">
         <v>635.00981833355036</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="4">
+        <v>0.63587333320174366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B101" s="3">
         <v>631.09155000007013</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="4">
+        <v>0.37982027779798955</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B102" s="3">
         <v>628.43964250007411</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="4">
+        <v>4.8045186111121438</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B103" s="3">
         <v>624.46719166677212</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="4">
+        <v>1.7227897222037427</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B104" s="3">
         <v>616.07505083363503</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="4">
+        <v>0.82343333313474432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B105" s="3">
         <v>600.67561472207308</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="4">
+        <v>1.3528702778276056</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="3">
         <v>589.93761472235201</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="4">
+        <v>1.0488027777755633</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="3">
         <v>511.43184805568308</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="4">
+        <v>0.74460472189821303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B108" s="3">
         <v>504.63534999982221</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="4">
+        <v>0.41642944479826838</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B109" s="3">
         <v>501.7529758331948</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="4">
+        <v>0.77755361149320379</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B110" s="3">
         <v>486.17464722215664</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="4">
+        <v>1.0474000000976957</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B111" s="3">
         <v>479.53177777788369</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" s="4">
+        <v>0.89653416664805263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B112" s="3">
         <v>460.1809563888819</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="4">
+        <v>0.35846388892969117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B113" s="3">
         <v>440.13336833333597</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="4">
+        <v>10.773422222351655</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B114" s="3">
         <v>358.45743972226046</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="4">
+        <v>0.27546388894552365</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B115" s="3">
         <v>333.94364888890414</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="4">
+        <v>1.4665038889506832</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="3">
         <v>330.55844250001246</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="4">
+        <v>0.17268694436643273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B117" s="3">
         <v>299.10735083324835</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="4">
+        <v>0.1809194446541369</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B118" s="3">
         <v>298.24739333364414</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="4">
+        <v>0.41514722193824127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B119" s="3">
         <v>292.97114722221158</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="4">
+        <v>0.54316000000108033</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B120" s="3">
         <v>288.04447500006063</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="4">
+        <v>1.1036461110343225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B121" s="3">
         <v>142.14827583334409</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="4">
+        <v>0.80206305562751368</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B122" s="3">
         <v>27.155759166693315</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="4">
+        <v>1.0548963889013976</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B123" s="3">
         <v>0.92009249998955056</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" s="4">
+        <v>1.21921666682465</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B124" s="3">
         <v>0</v>
       </c>
+      <c r="C124" s="4">
+        <v>0.60445277782855555</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C124" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>